--- a/Excel/Carga DB Postgres/TipoDocumento - CARGADO.xlsx
+++ b/Excel/Carga DB Postgres/TipoDocumento - CARGADO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>idtipodocumento</t>
   </si>
@@ -79,6 +79,75 @@
   </si>
   <si>
     <t>Acta entrega</t>
+  </si>
+  <si>
+    <t>abreviacion</t>
+  </si>
+  <si>
+    <t>DISPAN</t>
+  </si>
+  <si>
+    <t>INFOD</t>
+  </si>
+  <si>
+    <t>CEDUN</t>
+  </si>
+  <si>
+    <t>REMI</t>
+  </si>
+  <si>
+    <t>NOTAC</t>
+  </si>
+  <si>
+    <t>EXPE</t>
+  </si>
+  <si>
+    <t>EDIC</t>
+  </si>
+  <si>
+    <t>INVE</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>LICE</t>
+  </si>
+  <si>
+    <t>ACTAZ</t>
+  </si>
+  <si>
+    <t>CEDUV</t>
+  </si>
+  <si>
+    <t>CEDUT</t>
+  </si>
+  <si>
+    <t>SEGU</t>
+  </si>
+  <si>
+    <t>DGAI</t>
+  </si>
+  <si>
+    <t>POFI</t>
+  </si>
+  <si>
+    <t>OFIJU</t>
+  </si>
+  <si>
+    <t>ACTAE</t>
+  </si>
+  <si>
+    <t>SECUP</t>
+  </si>
+  <si>
+    <t>SECUN</t>
+  </si>
+  <si>
+    <t>Pedido de secuestro positivo</t>
+  </si>
+  <si>
+    <t>Pedido de secuestro negativo</t>
   </si>
 </sst>
 </file>
@@ -410,176 +479,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
